--- a/Streamlit_App/data/Metrics/Classification_Models_CD_Testing_Metrics.xlsx
+++ b/Streamlit_App/data/Metrics/Classification_Models_CD_Testing_Metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Streamlit_App\data\Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669DE281-83B6-4AD8-BF08-23044696EDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10087D3-4E52-4320-9B19-6E4E36AA8255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A3882DD-8CCF-47B5-A93B-B3C45B8A7C2E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Classification Models – Chemical Descriptors</t>
   </si>
@@ -89,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF171717"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,35 +195,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -227,21 +210,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +542,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -609,149 +591,160 @@
       <c r="C3" s="7">
         <v>0.57971014492753603</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0.57971014492753603</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0.73394495412843996</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>0.60869565217391297</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>0.875</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>0.61403508771929804</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>0.72164948453608202</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>0.15155725230404701</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>0.60869565217391297</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.875</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>0.61403508771929804</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>0.72164948453608202</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>0.15155725230404701</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>0.78260869565217395</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0.75510204081632604</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>0.83146067415730296</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>0.55617653347010998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.81159420289855</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.78723404255319096</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>0.85057471264367801</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0.61450553669230001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>0.79710144927536197</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.85</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>0.80952380952380898</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>0.82926829268292601</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>0.58068245903126803</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>0.68115942028985499</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>0.8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>0.69565217391304301</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>0.74418604651162701</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>0.332181919414959</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
